--- a/dtpu_configurations/only_integer8/100mhz/mxu_14x14/utilization.xlsx
+++ b/dtpu_configurations/only_integer8/100mhz/mxu_14x14/utilization.xlsx
@@ -154,16 +154,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>20.003759384155273</v>
+        <v>25.9248104095459</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>6.270114898681641</v>
+        <v>6.264367580413818</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>14.76597785949707</v>
+        <v>18.899436950683594</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>35.0</v>
+        <v>57.85714340209961</v>
       </c>
       <c r="F2" t="n" s="4">
         <v>82.7272720336914</v>
